--- a/dinas/public/files/template/inventory/permohonan_barang_detail.xlsx
+++ b/dinas/public/files/template/inventory/permohonan_barang_detail.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\inovasi\garut\dinas\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,17 +156,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,8 +206,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:G11" totalsRowShown="0">
-  <autoFilter ref="B10:G11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:F11" totalsRowShown="0">
+  <autoFilter ref="A10:F11"/>
   <tableColumns count="6">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="Nama Barang" dataDxfId="0"/>
@@ -272,6 +296,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -307,6 +348,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,112 +517,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G11"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="29.28515625" customWidth="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
